--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3713.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3713.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.350429145160905</v>
+        <v>1.566240906715393</v>
       </c>
       <c r="B1">
-        <v>2.838500639487473</v>
+        <v>3.98604941368103</v>
       </c>
       <c r="C1">
-        <v>6.76021652856598</v>
+        <v>3.464866161346436</v>
       </c>
       <c r="D1">
-        <v>1.982850991400783</v>
+        <v>1.545438885688782</v>
       </c>
       <c r="E1">
-        <v>1.032455443938047</v>
+        <v>0.9526641964912415</v>
       </c>
     </row>
   </sheetData>
